--- a/_results/Results.xlsx
+++ b/_results/Results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>AsyncProcessingAutoCommitConsumer</t>
   </si>
@@ -368,13 +368,127 @@
   </si>
   <si>
     <t>Consistency: In order processing capability</t>
+  </si>
+  <si>
+    <t>ChunkedPollAsyncProcessingBatchManualCommitConsumer</t>
+  </si>
+  <si>
+    <t>2.2444
+NEW__CHUNKED_POLL_ASYNC_PROCESSING_BATCH_MANUAL_COMMIT_CONSUMER_10</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.35974
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SCALABILITY_TEST__CHUNKED_POLL_ASYNC_PROCESSING_BATCH_MANUAL_COMMIT_CONSUMER_2</t>
+    </r>
+  </si>
+  <si>
+    <t>0
+RESILIENCE_TEST__CHUNKED_POLL_ASYNC_PROCESSING_BATCH_MANUAL_COMMIT_CONSUMER_1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">199
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RESILIENCE_TEST__CHUNKED_POLL_ASYNC_PROCESSING_BATCH_MANUAL_COMMIT_CONSUMER_1</t>
+    </r>
+  </si>
+  <si>
+    <t>SerialConsumer</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">aprox. 200
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SERIAL_CONSUMER_1
+*) test ran for 1170 msgs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">aprox 49
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SCALABILITY_TEST__SERIAL_CONSUMER_2
+*) test ran for 2547 msgs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0
+RESILIENCE_TEST__SERIAL_CONSUMER_2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*) test ran for 5350 msgs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3
+RESILIENCE_TEST__SERIAL_CONSUMER_2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*) test ran for 5350 msgs</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,8 +526,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -425,8 +553,13 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -434,12 +567,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -455,10 +604,12 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -760,10 +911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F9"/>
+  <dimension ref="A2:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F7" sqref="A7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,7 +985,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -874,62 +1025,102 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>23</v>
+      <c r="A7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="6" t="b">
+      <c r="F9" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="10" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="6" t="b">
+      <c r="F10" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="6" t="b">
         <v>1</v>
       </c>
     </row>
